--- a/data/sds/sql_queries_explanations.xlsx
+++ b/data/sds/sql_queries_explanations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PostGraduate\Code\ECNU\sqleval\data\sds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C39ACED-19BA-4275-AC36-FD860E503BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE68871E-8837-4515-B122-C9699818C87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-1650" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>SQL语句</t>
   </si>
@@ -158,13 +158,26 @@
   </si>
   <si>
     <t>如果一个学生没有成功学完任何课程，上述更新操作将使其tot_cred属性值为null。想把这些学生的tot_cred属性值设为0。</t>
+  </si>
+  <si>
+    <t>将'计算机科学'系所有教师的工资提高10%。</t>
+  </si>
+  <si>
+    <t>UPDATE instructor SET salary = salary * 1.10 WHERE dept_name = 'Comp. Sci.';</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将'CS-101'课程在2024年秋季学期所有分区的教室改为'Smith'楼101房间。</t>
+  </si>
+  <si>
+    <t>UPDATE section SET building = 'Smith', room_number = '101' WHERE course_id = 'CS-101' AND semester = 'Fall' AND year = 2024;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +199,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -223,10 +242,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,15 +554,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="52.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -556,7 +581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -564,7 +589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -572,7 +597,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -580,7 +605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -588,7 +613,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -596,7 +621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -604,7 +629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -612,7 +637,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -620,7 +645,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -628,7 +653,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -636,7 +661,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -644,7 +669,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -652,7 +677,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -660,7 +685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -668,7 +693,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -676,7 +701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -684,7 +709,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -692,7 +717,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -700,7 +725,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -708,7 +733,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -716,12 +741,28 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18">
+      <c r="A25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="18">
+      <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
